--- a/base.xlsx
+++ b/base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\work-list\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\Python\Michal\work-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -807,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -30,130 +30,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>Vorlage zur Dokumentation der täglichen Arbeitszeit</t>
-  </si>
-  <si>
-    <t>Firma:</t>
-  </si>
-  <si>
-    <t>Name des Mitarbeiters:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Pers.-Nr.:</t>
   </si>
   <si>
-    <t>Kalen-dertag</t>
-  </si>
-  <si>
-    <t>Beginn</t>
-  </si>
-  <si>
-    <t>Pause</t>
-  </si>
-  <si>
-    <t>Ende</t>
-  </si>
-  <si>
-    <t>Dauer</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>aufgezeichnet</t>
-  </si>
-  <si>
-    <t>Bemerkungen</t>
-  </si>
-  <si>
-    <t>(Uhrzeit)</t>
-  </si>
-  <si>
-    <t>(Dauer)</t>
-  </si>
-  <si>
-    <t>(Summe)</t>
-  </si>
-  <si>
-    <t>am:</t>
-  </si>
-  <si>
-    <t>Summe:</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Unterschrift des Arbeitnehmers</t>
-  </si>
-  <si>
-    <t>Unterschrift des Arbeitgebers</t>
-  </si>
-  <si>
-    <t>* Tragen Sie in diese Spalte eines der folgenden Kürzel ein, wenn es für diesen Kalendertag zutrifft:</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Krank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U </t>
-  </si>
-  <si>
-    <t>Urlaub</t>
-  </si>
-  <si>
-    <t>UU</t>
-  </si>
-  <si>
-    <t>unbezahlter Urlaub</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Feiertag</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Stundenweise abwesend</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>Stundenweise Urlaub</t>
-  </si>
-  <si>
-    <r>
-      <t>Monat/Jahr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Schlüssel:</t>
+    <t>Template for documenting daily working hours</t>
+  </si>
+  <si>
+    <t>Firm:</t>
+  </si>
+  <si>
+    <t>Name and Surname:</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Signature of the employer</t>
+  </si>
+  <si>
+    <t>Signature of the employee</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>Unpaid Vacation</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Calendar day</t>
+  </si>
+  <si>
+    <t>(time)</t>
+  </si>
+  <si>
+    <t>Work start</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Work ends</t>
+  </si>
+  <si>
+    <t>(duration)</t>
+  </si>
+  <si>
+    <t>Work hours</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>on:</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>Sum:</t>
   </si>
 </sst>
 </file>
@@ -807,19 +770,19 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -845,7 +808,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -871,7 +834,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -897,13 +860,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="16"/>
       <c r="E7" s="46" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="47"/>
@@ -925,28 +888,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -954,20 +917,20 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -978,7 +941,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -1014,19 +977,19 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="25" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="7"/>
       <c r="G14" s="25" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="3"/>
@@ -1044,9 +1007,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1074,7 +1035,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="31"/>
@@ -1088,10 +1049,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="32" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="6"/>
@@ -1104,10 +1065,10 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="32" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="6"/>
@@ -1120,10 +1081,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="32" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="6"/>
@@ -1136,10 +1097,10 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="6"/>
@@ -1151,12 +1112,8 @@
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="35"/>
       <c r="G23" s="6"/>
       <c r="H23" s="27"/>
@@ -1167,12 +1124,8 @@
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>32</v>
-      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="6"/>
       <c r="H24" s="27"/>
